--- a/Week2/day8/admission_problem.xlsx
+++ b/Week2/day8/admission_problem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learning\quest_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learning\quest_python\Week2\day8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD168A1D-5A0F-4F25-ABB7-54E5FDD2C165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0241DE28-3B83-48A7-893B-5204FCF370D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A884DB9-57DE-48FF-9E80-26D0DDEFEF39}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Branch</t>
   </si>
@@ -54,10 +54,163 @@
     <t>Use case</t>
   </si>
   <si>
-    <t>User gets available vacancy with a</t>
-  </si>
-  <si>
     <t>BCOM</t>
+  </si>
+  <si>
+    <t>User gets available vacancy with all avlid values</t>
+  </si>
+  <si>
+    <t>user has sufficient marks but no preference in available vacancies</t>
+  </si>
+  <si>
+    <t>user has preference in all but no sufficient marks</t>
+  </si>
+  <si>
+    <t>user has sufficient marks and preference but branch is not matching</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Accountancy</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Individual subject mark &lt; 35</t>
+  </si>
+  <si>
+    <t>Expected outcome</t>
+  </si>
+  <si>
+    <t>Actual outcome</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Not eligible</t>
+  </si>
+  <si>
+    <t>1 or more subject mark &lt;35</t>
+  </si>
+  <si>
+    <t>Individual subject mark &gt; 35</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>branch ec/bcom/cs  individual marks &gt;35</t>
+  </si>
+  <si>
+    <t>arts&gt;90</t>
+  </si>
+  <si>
+    <t>maths&gt;90</t>
+  </si>
+  <si>
+    <t>maths&gt;95</t>
+  </si>
+  <si>
+    <t>eligible for marketing</t>
+  </si>
+  <si>
+    <t>pref - maths, arts, english/ branch bcom/ marks&gt;35</t>
+  </si>
+  <si>
+    <t>pref - maths, arts, english/ branch cs/ marks&gt;35</t>
+  </si>
+  <si>
+    <t>eligible for sales</t>
+  </si>
+  <si>
+    <t>eligible for accountancy</t>
+  </si>
+  <si>
+    <t>pref not matching/ branch ec/ marks&gt;35</t>
+  </si>
+  <si>
+    <t>pref matching/ branch ec/ marks&lt;35</t>
+  </si>
+  <si>
+    <t>not eligible</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>EC / 98/ 98/ 100/ MATHS/ARTS</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>EC / 98/ 98/ 100/ Literature/ARTS</t>
+  </si>
+  <si>
+    <t>branch cs/ marks&lt;35</t>
+  </si>
+  <si>
+    <t>CS/ 6/30/35</t>
+  </si>
+  <si>
+    <t>branch ec/ marks&gt;35 / pref - literature, arts</t>
+  </si>
+  <si>
+    <t>branch ec/ marks&gt;35 / pref - maths, arts</t>
+  </si>
+  <si>
+    <t>branch bcom/ marks&gt;35/ pref - maths, arts</t>
+  </si>
+  <si>
+    <t>BCOM/80/90/90/MATHS/ARTS</t>
+  </si>
+  <si>
+    <t>branch cs/ marks&gt;35/ pref - maths, arts</t>
+  </si>
+  <si>
+    <t>CS/ 100/80/80/ MATHS/ARTS</t>
+  </si>
+  <si>
+    <t>branch ec/ marks&gt;35/ pref- arts, literature</t>
+  </si>
+  <si>
+    <t>branch cs/ marks&gt;35/ pref - maths, literature</t>
+  </si>
+  <si>
+    <t>branch cs/ marks&gt;35/ pref - maths,arts</t>
+  </si>
+  <si>
+    <t>branch bcom/ marks&gt;35/ pref - arts, literature</t>
+  </si>
+  <si>
+    <t>EC/80/91/93/ARTS/LITERATUE</t>
+  </si>
+  <si>
+    <t>BCOM/98/90/95/MATHS/ARTS</t>
+  </si>
+  <si>
+    <t>CS/ 98/87/92/ MATHS/LITERATURE</t>
+  </si>
+  <si>
+    <t>CS/ 98/96/92/ MATHS/ ARTS</t>
+  </si>
+  <si>
+    <t>BCOM/ 75/ 92/ 85/ ARTS/ LITERATURE</t>
+  </si>
+  <si>
+    <t>branch / mark/ pref matching</t>
+  </si>
+  <si>
+    <t>branch / mark not matching/ pref matching</t>
+  </si>
+  <si>
+    <t>branch/ marks&lt;35</t>
+  </si>
+  <si>
+    <t>lit&gt;90</t>
   </si>
 </sst>
 </file>
@@ -409,24 +562,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4F525E-9EE2-4198-A595-B1FE2EB1AAA5}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.21875" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -437,10 +608,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -453,11 +624,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -469,6 +640,318 @@
       </c>
       <c r="D4" t="s">
         <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
